--- a/medicine/Enfance/Roselyne_Morel/Roselyne_Morel.xlsx
+++ b/medicine/Enfance/Roselyne_Morel/Roselyne_Morel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roselyne Morel, née le 22 février 1942 à Pontarlier dans le Doubs (France), est un écrivain français. Elle est surtout connue pour ses contes, romans et nouvelles destinés à la jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômée d’anglais et de lettres modernes, Roselyne Morel a passé une année en Angleterre puis elle a été professeur d’anglais, lectrice pour le département jeunesse d’une  grande maison d’édition et  documentaliste. Elle a publié plus de quarante  livres pour la jeunesse (conte, roman, humour, policier, aventure, récit de vie, documentaire) et quelques histoires dans la presse jeune. Elle fait aujourd'hui partie du Comité de Rédaction de la Revue des Livres Pour Enfants. (BNF/La joie par les livres). Elle est membre de la Charte des Auteurs et Illustrateurs de Jeunesse, de la Maison des Écrivains et de la Littérature, et  de la Société des Gens de Lettres.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Un kilo d'oranges, ill. Sébastien Chebret, nouvelle édition (coll. Les Romans), Gulfstream Éditeur, 2007
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un kilo d'oranges, ill. Sébastien Chebret, nouvelle édition (coll. Les Romans), Gulfstream Éditeur, 2007
 La Rescapée de Métabief, ill. de Frédéric Malenfer, nouvelle édition (coll. Les Petits Polars), Actes Sud Junior, 2005 et ill. de Pascal, 1° édition, (coll. Raisons d’enfance), Actes Sud Junior, 2000
 Un trésor sous la mer, ill. de Céline Thoué, Éditions Sed, 2005
 Pizzas et petits trafics, ill. de Philippe Archer, Pêcheur de lune Éditions, 2004.
@@ -558,14 +577,81 @@
 Un kilo d’oranges, ill. de Gilbert Raffin et de Robert Diet, (coll. Le livre de poche jeunesse), Hachette, 1989
 Panique à Plexipolis, ill. de François Place, (coll. Le livre de poche Clip), Hachette, 1987
 La falaise perdue, ill. de Copik Buntz, (coll. Le livre de poche Club), Hachette, 1987
-Dans les griffes du léopard, ill. de Gilbert Raffin, (coll .Le livre de poche Club), Hachette, 1987
-e-books
-GaiaVillage Publications - www.gaiavillage.fr
-Histoires à bascule (4 nouvelles) 2011
+Dans les griffes du léopard, ill. de Gilbert Raffin, (coll .Le livre de poche Club), Hachette, 1987</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>GaiaVillage Publications - www.gaiavillage.fr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Histoires à bascule (4 nouvelles) 2011
 Nature …Surprises ? (2 nouvelles) 2011
-L’enfant aux doigts d’or (roman) 2012
-Contes
-Noémie, le prince et le chat blanc, ill. de Isabelle Chatellard, Éditions Sed, 2004
+L’enfant aux doigts d’or (roman) 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Contes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Noémie, le prince et le chat blanc, ill. de Isabelle Chatellard, Éditions Sed, 2004
 Barnabé, la fée et le glacier, ill. de Stefany Devaux, Éditions Sed, 2003
 Grand-mère Loup (in« Loup y es-tu ? »), ill. de Dankerleroux, Editions Lito, 2004
 Le Yapadocus (in « 13 histoires pour avoir un peu peur »), ill. de Muriel Kerba, Editions Lito, 2005 et, in «Mes monstres et moi », 1re édition, Éditions Lito, 2003
@@ -578,9 +664,43 @@
 Monsieur Hibou, ill. Sylviane Alloy, (coll. Premières lectures), Éditions Rouge et Or, 1988
 Noir de Laque, ill. de Giannini, (coll. Petite Pomme), Gautier-Languereau, 1987
 Petit lapin blanc et Grand lapin gris, ill. de Doris Smith, (coll. Petite Pomme), Gautier-Languereau, 1987
-Tout-plissé l’écureuil, ill. de Sylviane Alloy, (coll. Premières lectures), Éditions Rouge et Or, 1987
-Documentaires
-Le livre de mon bébé/ Livre de naissance, ill. de Fabienne Boisnard, Éditions Gautier-Languereau, 2010, 2005 et 1996.
+Tout-plissé l’écureuil, ill. de Sylviane Alloy, (coll. Premières lectures), Éditions Rouge et Or, 1987</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Documentaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le livre de mon bébé/ Livre de naissance, ill. de Fabienne Boisnard, Éditions Gautier-Languereau, 2010, 2005 et 1996.
 Guide pour l’Allemagne et l’Autriche (à titre de concepteur), ill. de Pierre Milon et de Sylviane Gangloff, Éditions Rouge et Or, 1992
 Guide pour l’Angleterre, nouvelle édition, ill. de Serge Bloch et de Pierre Milon, Éditions Rouge et Or, 1989
 L’eau, ill. de Isabelle Molinard, (coll. Premières lectures documents), G.P. Rouge et Or, 1988
@@ -588,34 +708,289 @@
 Petit guide pour l’Angleterre, ill. de Serge Bloch et de Pierre Milon, (coll. Super Koala), Éditions G.P., 1987
 Le carnet de bord de Charlotte et Grégoire, ill. de Véronique Chéneau, (coll. Charlotte et Grégoire), GP. Rouge et Or, 1986
 Promenade à travers les saisons, ill. de Noëlle Le Guillouzic, G.P. Rouge et Or, 1986
-Nos premiers jeux, ill. de Véronique Chéneau, (coll. Charlotte et Grégoire), G.P. Rouge et Or, 1985
-Récit
-Une école, un village, le matin. Une école, un village, l’après-midi, ill. de Hervé Tullet, (in « L’écrivain viendra le 17 mars », recueil collectif) Éditions du Seuil/Maison des Écrivains, 2001
-Histoires parues dans la presse
-Le sympathon. Trois épisodes. (Okapi no 275, 01-05-83 « n° 276, 15-05-83 « no 277, 01-06-83 )
+Nos premiers jeux, ill. de Véronique Chéneau, (coll. Charlotte et Grégoire), G.P. Rouge et Or, 1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récit</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Une école, un village, le matin. Une école, un village, l’après-midi, ill. de Hervé Tullet, (in « L’écrivain viendra le 17 mars », recueil collectif) Éditions du Seuil/Maison des Écrivains, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Histoires parues dans la presse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le sympathon. Trois épisodes. (Okapi no 275, 01-05-83 « n° 276, 15-05-83 « no 277, 01-06-83 )
 Une araignée au lycée (Okapi no 269, 01-02-83)
 La ritournelle (Okapi no 265, 01-12-82)
 Le magicien des jardins (Okapi no 246, 15-02-82)
 La grande migration (Okapi no 232, 15-07-81)
 70 étages en rappel (Okapi no 227, 01-05- 81) publié dans « Atelier Cauchemar » en 1998 sous le titre « Escalade »
-Grand-Mère Chocolat (Pomme d’Api no 176, octobre 80)
-Traductions et adaptations
-Rouge et or
-Série Madame Pepperpote
-Le cadeau-surprise
+Grand-Mère Chocolat (Pomme d’Api no 176, octobre 80)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traductions et adaptations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouge et or
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Traductions et adaptations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Madame Pepperpote</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le cadeau-surprise
 Madame Pepperpote rapetisse
 Une journée mouvementée
-Madame Pepperpote s’envole
-Collection Mon livre préféré
-Bonne nuit !
-Petit gourmand
-Livres cartonnés
-Boucle d’or et les trois ours
+Madame Pepperpote s’envole</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traductions et adaptations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Collection Mon livre préféré</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bonne nuit !
+Petit gourmand</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Traductions et adaptations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Livres cartonnés</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Boucle d’or et les trois ours
 La petite poule rousse
 Ma mère l’oie
-Trois petits cochons
-Livres animés
-Chant de Noël (Ch. Dickens)
+Trois petits cochons</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Traductions et adaptations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Livres animés</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Chant de Noël (Ch. Dickens)
 Merveilleux Noël
 Calendrier de l’Avent (Les animaux préparent Noël)
 Vieux Mac Donald dans sa ferme
@@ -625,19 +1000,133 @@
 Les pirates vont en mer
 Les quatre alpinistes
 Le gâteau d’anniversaire
-Oh non, Père Noël !
-Collection Ma sœur et moi
-À la maison
+Oh non, Père Noël !</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Traductions et adaptations</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Collection Ma sœur et moi</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>À la maison
 Au jardin
 À la plage
-Nos jeux
-Livres-fenêtres Dick Bruna
-C’est moi, Boris !
+Nos jeux</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Traductions et adaptations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Livres-fenêtres Dick Bruna</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>C’est moi, Boris !
 C’est moi, Miffy !
 C’est moi, Snuffy !
-C’est moi, Poppy !
-Série Donjons et dragons
-Le roi sans couronne
+C’est moi, Poppy !</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roselyne_Morel</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Traductions et adaptations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Série Donjons et dragons</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Le roi sans couronne
 Le labyrinthe et le dragon
 Éditions du Pélican/Rouge et or
 Prononciation et grammaire anglaise pour « Mon premier dictionnaire en images français-anglais »
